--- a/data/ger_gdp_hicp.xlsx
+++ b/data/ger_gdp_hicp.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Munka1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -395,7 +392,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -551,6 +548,8 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="33">
@@ -901,7 +900,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="1. jelölőszín" xfId="18" builtinId="29" customBuiltin="1"/>
@@ -959,19 +958,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Orders"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1546,7 +1532,7 @@
         <v>106.1951</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1549,7 @@
         <v>104.21810000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1566,7 @@
         <v>104.05070000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1597,7 +1583,7 @@
         <v>102.35039999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1600,7 @@
         <v>103.18389999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1631,7 +1617,7 @@
         <v>103.71729999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1634,7 @@
         <v>104.7175</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1651,7 @@
         <v>105.1842</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1682,7 +1668,7 @@
         <v>104.6174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1699,7 +1685,7 @@
         <v>104.084</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1715,8 +1701,11 @@
       <c r="E26">
         <v>103.8173</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>81.402003333333326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1732,8 +1721,11 @@
       <c r="E27">
         <v>103.98399999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>81.688130000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1749,8 +1741,11 @@
       <c r="E28">
         <v>104.184</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>81.902716666666677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1766,8 +1761,11 @@
       <c r="E29">
         <v>102.7505</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>81.866953333333342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1783,8 +1781,11 @@
       <c r="E30">
         <v>102.4837</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>82.689556666666661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1800,8 +1801,11 @@
       <c r="E31">
         <v>103.15049999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>82.796853333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1817,8 +1821,11 @@
       <c r="E32">
         <v>100.8168</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>83.226036666666673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1834,8 +1841,11 @@
       <c r="E33">
         <v>101.51690000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>83.082973333333328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1851,8 +1861,11 @@
       <c r="E34">
         <v>102.8505</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>83.190269999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1868,8 +1881,11 @@
       <c r="E35">
         <v>101.4169</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>83.512159999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1885,8 +1901,11 @@
       <c r="E36">
         <v>102.2504</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>83.72675333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1902,8 +1921,11 @@
       <c r="E37">
         <v>103.2505</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>83.369100000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1919,8 +1941,11 @@
       <c r="E38">
         <v>103.2839</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>83.44062666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1936,8 +1961,11 @@
       <c r="E39">
         <v>101.2835</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>83.941346666666661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1953,8 +1981,11 @@
       <c r="E40">
         <v>101.0502</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>84.334763333333328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1970,8 +2001,11 @@
       <c r="E41">
         <v>102.4837</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>84.227466666666672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1987,8 +2021,11 @@
       <c r="E42">
         <v>103.0838</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>84.72818333333332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2004,8 +2041,11 @@
       <c r="E43">
         <v>103.71729999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>84.835480000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2021,8 +2061,11 @@
       <c r="E44">
         <v>102.61709999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>85.336189999999988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2038,8 +2081,11 @@
       <c r="E45">
         <v>103.1172</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>85.658083333333323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2055,8 +2101,11 @@
       <c r="E46">
         <v>104.184</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>86.08726999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2072,8 +2121,11 @@
       <c r="E47">
         <v>103.71729999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>86.909873333333323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2089,8 +2141,11 @@
       <c r="E48">
         <v>103.0505</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>87.160233333333323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2106,8 +2161,11 @@
       <c r="E49">
         <v>102.4837</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>86.874106666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2123,8 +2181,11 @@
       <c r="E50">
         <v>100.05</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>87.804003333333341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2140,8 +2201,11 @@
       <c r="E51">
         <v>100.98350000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>87.911296666666658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2157,8 +2221,11 @@
       <c r="E52">
         <v>101.1835</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>88.090130000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2174,8 +2241,11 @@
       <c r="E53">
         <v>100.68340000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>87.982829999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2191,8 +2261,11 @@
       <c r="E54">
         <v>99.283209999999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>88.805436666666665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2208,8 +2281,11 @@
       <c r="E55">
         <v>99.883319999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>88.66237000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2225,8 +2301,11 @@
       <c r="E56">
         <v>99.549930000000003</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>89.020026666666652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2242,8 +2321,11 @@
       <c r="E57">
         <v>100.11669999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>88.984263333333331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2259,8 +2341,11 @@
       <c r="E58">
         <v>100.9502</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>89.735336666666669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2276,8 +2361,11 @@
       <c r="E59">
         <v>101.25020000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>90.379116666666661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2293,8 +2381,11 @@
       <c r="E60">
         <v>101.2169</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>90.772530000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2310,8 +2401,11 @@
       <c r="E61">
         <v>101.6836</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>90.879830000000013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2327,8 +2421,11 @@
       <c r="E62">
         <v>103.0172</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>91.27324666666668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2344,8 +2441,11 @@
       <c r="E63">
         <v>102.217</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>91.881259999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -2361,8 +2461,11 @@
       <c r="E64">
         <v>102.7838</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>92.668099999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2378,8 +2481,11 @@
       <c r="E65">
         <v>102.7838</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>92.989983333333328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2395,8 +2501,11 @@
       <c r="E66">
         <v>102.7171</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>93.168813333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2412,8 +2521,11 @@
       <c r="E67">
         <v>103.3506</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>93.848356666666675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2429,8 +2541,11 @@
       <c r="E68">
         <v>102.5504</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>94.206006666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2446,8 +2561,11 @@
       <c r="E69">
         <v>103.48390000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>94.206009999999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2463,8 +2581,11 @@
       <c r="E70">
         <v>102.1504</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>94.885553333333334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2480,8 +2601,11 @@
       <c r="E71">
         <v>102.5171</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>95.708153333333328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2497,8 +2621,11 @@
       <c r="E72">
         <v>101.917</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>96.280399999999986</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2514,8 +2641,11 @@
       <c r="E73">
         <v>100.5168</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>97.031473333333338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2531,8 +2661,11 @@
       <c r="E74">
         <v>101.9837</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>97.818313333333322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2548,8 +2681,11 @@
       <c r="E75">
         <v>100.7835</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>98.605149999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2565,8 +2701,11 @@
       <c r="E76">
         <v>101.5836</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>99.391983333333329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2582,8 +2721,11 @@
       <c r="E77">
         <v>102.05029999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>98.676683333333344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2599,8 +2741,11 @@
       <c r="E78">
         <v>98.983159999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>98.569383333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2616,8 +2761,11 @@
       <c r="E79">
         <v>98.516419999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>98.783976666666661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2633,8 +2781,11 @@
       <c r="E80">
         <v>98.283050000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>98.998566666666662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2650,8 +2801,11 @@
       <c r="E81">
         <v>99.416569999999993</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>99.070100000000011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2667,8 +2821,11 @@
       <c r="E82">
         <v>99.016499999999994</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>99.391986666666654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2684,8 +2841,11 @@
       <c r="E83">
         <v>100.15</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>99.821169999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2701,8 +2861,11 @@
       <c r="E84">
         <v>100.8835</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>100.14306666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2718,8 +2881,11 @@
       <c r="E85">
         <v>100.38339999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>100.60803333333335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2735,8 +2901,11 @@
       <c r="E86">
         <v>100.98350000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>101.50213333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2752,8 +2921,11 @@
       <c r="E87">
         <v>100.3501</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>102.32473333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2769,8 +2941,11 @@
       <c r="E88">
         <v>101.55029999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>102.82546666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2786,8 +2961,11 @@
       <c r="E89">
         <v>101.6169</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>103.25466666666667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -2803,8 +2981,11 @@
       <c r="E90">
         <v>100.71680000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>103.93419999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -2820,8 +3001,11 @@
       <c r="E91">
         <v>101.4169</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>104.47063333333334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2837,8 +3021,11 @@
       <c r="E92">
         <v>101.1169</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>104.93560000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -2854,8 +3041,11 @@
       <c r="E93">
         <v>100.4834</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>105.25749999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2871,8 +3061,11 @@
       <c r="E94">
         <v>101.0835</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>105.82976666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -2888,8 +3081,11 @@
       <c r="E95">
         <v>101.3502</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>106.04436666666668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -2905,8 +3101,11 @@
       <c r="E96">
         <v>101.6169</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>106.68816666666667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -2922,8 +3121,11 @@
       <c r="E97">
         <v>101.2835</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>106.7239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -2939,8 +3141,11 @@
       <c r="E98">
         <v>102.5504</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>106.86696666666667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -2956,8 +3161,11 @@
       <c r="E99">
         <v>102.5171</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>107.04576666666668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -2973,8 +3181,11 @@
       <c r="E100">
         <v>102.3171</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>107.5107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="E101">
         <v>103.5506</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>107.1888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -3007,8 +3221,11 @@
       <c r="E102">
         <v>104.85080000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>106.79543333333334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -3024,8 +3241,11 @@
       <c r="E103">
         <v>104.9508</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>107.43916666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -3041,8 +3261,11 @@
       <c r="E104">
         <v>105.6176</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>107.54646666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -3058,8 +3281,11 @@
       <c r="E105">
         <v>105.8176</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>107.40339999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -3075,8 +3301,11 @@
       <c r="E106">
         <v>106.51779999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>106.90273333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -3092,8 +3321,11 @@
       <c r="E107">
         <v>106.3511</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>107.40339999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -3109,8 +3341,11 @@
       <c r="E108">
         <v>106.6511</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>107.97566666666667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -3126,13 +3361,19 @@
       <c r="E109">
         <v>107.4179</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>108.51216666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
       <c r="D110">
         <v>113.0252</v>
+      </c>
+      <c r="F110">
+        <v>108.90560000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3148,6 +3389,7 @@
     <hyperlink ref="L1" r:id="rId9"/>
     <hyperlink ref="H1" r:id="rId10"/>
     <hyperlink ref="I1" r:id="rId11"/>
+    <hyperlink ref="F1" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ger_gdp_hicp.xlsx
+++ b/data/ger_gdp_hicp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Documents\gazdpol\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\gazdpol\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Munka1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -894,33 +894,28 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="1. jelölőszín" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="2. jelölőszín" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 2. jelölőszín" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 3. jelölőszín" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 4. jelölőszín" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 5. jelölőszín" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 6. jelölőszín" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="3. jelölőszín" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="4. jelölőszín" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="40% - 1. jelölőszín" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 2. jelölőszín" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 3. jelölőszín" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 4. jelölőszín" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 5. jelölőszín" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 6. jelölőszín" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="5. jelölőszín" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="6. jelölőszín" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="60% - 1. jelölőszín" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 2. jelölőszín" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 3. jelölőszín" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -938,6 +933,12 @@
     <cellStyle name="Hivatkozás" xfId="42" builtinId="8"/>
     <cellStyle name="Hivatkozott cella" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Jegyzet" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Jó" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Kimenet" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Magyarázó szöveg" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1036,6 +1037,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,6 +1089,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,7 +1264,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1361,6 +1399,12 @@
       <c r="E6">
         <v>113.9554</v>
       </c>
+      <c r="J6" s="4">
+        <v>109.26666666666665</v>
+      </c>
+      <c r="K6" s="4">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1378,6 +1422,12 @@
       <c r="E7">
         <v>113.4243</v>
       </c>
+      <c r="J7" s="4">
+        <v>107.13333333333333</v>
+      </c>
+      <c r="K7" s="4">
+        <v>101.2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1395,6 +1445,12 @@
       <c r="E8">
         <v>110.9752</v>
       </c>
+      <c r="J8" s="4">
+        <v>104.93333333333334</v>
+      </c>
+      <c r="K8" s="4">
+        <v>100.86666666666667</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1412,6 +1468,12 @@
       <c r="E9">
         <v>109.6474</v>
       </c>
+      <c r="J9" s="4">
+        <v>105</v>
+      </c>
+      <c r="K9" s="4">
+        <v>101.56666666666666</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1429,6 +1491,12 @@
       <c r="E10">
         <v>110.5031</v>
       </c>
+      <c r="J10" s="4">
+        <v>101.7</v>
+      </c>
+      <c r="K10" s="4">
+        <v>99.100000000000009</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1446,6 +1514,12 @@
       <c r="E11">
         <v>108.4376</v>
       </c>
+      <c r="J11" s="4">
+        <v>99.40000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>98.133333333333326</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1463,6 +1537,12 @@
       <c r="E12">
         <v>108.6442</v>
       </c>
+      <c r="J12" s="4">
+        <v>95.033333333333346</v>
+      </c>
+      <c r="K12" s="4">
+        <v>93.866666666666674</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1480,6 +1560,12 @@
       <c r="E13">
         <v>110.73909999999999</v>
       </c>
+      <c r="J13" s="4">
+        <v>89.133333333333326</v>
+      </c>
+      <c r="K13" s="4">
+        <v>87.233333333333348</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1497,6 +1583,12 @@
       <c r="E14">
         <v>105.1919</v>
       </c>
+      <c r="J14" s="4">
+        <v>87.966666666666654</v>
+      </c>
+      <c r="K14" s="4">
+        <v>89.866666666666674</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1514,6 +1606,12 @@
       <c r="E15">
         <v>104.21810000000001</v>
       </c>
+      <c r="J15" s="4">
+        <v>88</v>
+      </c>
+      <c r="K15" s="4">
+        <v>91.5</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1531,8 +1629,14 @@
       <c r="E16">
         <v>106.1951</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J16" s="4">
+        <v>90.100000000000009</v>
+      </c>
+      <c r="K16" s="4">
+        <v>95.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1548,8 +1652,14 @@
       <c r="E17">
         <v>104.21810000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J17" s="4">
+        <v>91.833333333333329</v>
+      </c>
+      <c r="K17" s="4">
+        <v>98.066666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1565,8 +1675,14 @@
       <c r="E18">
         <v>104.05070000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J18" s="4">
+        <v>95.033333333333317</v>
+      </c>
+      <c r="K18" s="4">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1582,8 +1698,14 @@
       <c r="E19">
         <v>102.35039999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J19" s="4">
+        <v>99.933333333333323</v>
+      </c>
+      <c r="K19" s="4">
+        <v>106.03333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1599,8 +1721,14 @@
       <c r="E20">
         <v>103.18389999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J20" s="4">
+        <v>102.16666666666667</v>
+      </c>
+      <c r="K20" s="4">
+        <v>106.33333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1616,8 +1744,14 @@
       <c r="E21">
         <v>103.71729999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J21" s="4">
+        <v>105.2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1633,8 +1767,14 @@
       <c r="E22">
         <v>104.7175</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J22" s="4">
+        <v>103.76666666666665</v>
+      </c>
+      <c r="K22" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1650,8 +1790,14 @@
       <c r="E23">
         <v>105.1842</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J23" s="4">
+        <v>100.60000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>99.600000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1667,8 +1813,14 @@
       <c r="E24">
         <v>104.6174</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J24" s="4">
+        <v>97.8</v>
+      </c>
+      <c r="K24" s="4">
+        <v>97.466666666666654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1684,8 +1836,14 @@
       <c r="E25">
         <v>104.084</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J25" s="4">
+        <v>96.566666666666677</v>
+      </c>
+      <c r="K25" s="4">
+        <v>96.899999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1704,8 +1862,14 @@
       <c r="F26">
         <v>81.402003333333326</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J26" s="4">
+        <v>94</v>
+      </c>
+      <c r="K26" s="4">
+        <v>95.133333333333326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1724,8 +1888,14 @@
       <c r="F27">
         <v>81.688130000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J27" s="4">
+        <v>93.066666666666663</v>
+      </c>
+      <c r="K27" s="4">
+        <v>95.09999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1744,8 +1914,14 @@
       <c r="F28">
         <v>81.902716666666677</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J28" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="K28" s="4">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1764,8 +1940,14 @@
       <c r="F29">
         <v>81.866953333333342</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J29" s="4">
+        <v>97.600000000000009</v>
+      </c>
+      <c r="K29" s="4">
+        <v>100.86666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1784,8 +1966,14 @@
       <c r="F30">
         <v>82.689556666666661</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J30" s="4">
+        <v>98.399999999999991</v>
+      </c>
+      <c r="K30" s="4">
+        <v>101.26666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1804,8 +1992,14 @@
       <c r="F31">
         <v>82.796853333333331</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J31" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="K31" s="4">
+        <v>101.13333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1824,8 +2018,14 @@
       <c r="F32">
         <v>83.226036666666673</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J32" s="4">
+        <v>102.23333333333335</v>
+      </c>
+      <c r="K32" s="4">
+        <v>103.66666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1844,8 +2044,14 @@
       <c r="F33">
         <v>83.082973333333328</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J33" s="4">
+        <v>104.56666666666666</v>
+      </c>
+      <c r="K33" s="4">
+        <v>105.23333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1864,8 +2070,14 @@
       <c r="F34">
         <v>83.190269999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J34" s="4">
+        <v>104</v>
+      </c>
+      <c r="K34" s="4">
+        <v>103.13333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1884,8 +2096,14 @@
       <c r="F35">
         <v>83.512159999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J35" s="4">
+        <v>103.89999999999999</v>
+      </c>
+      <c r="K35" s="4">
+        <v>102.73333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1904,8 +2122,14 @@
       <c r="F36">
         <v>83.72675333333332</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J36" s="4">
+        <v>102.13333333333333</v>
+      </c>
+      <c r="K36" s="4">
+        <v>99.866666666666674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1924,8 +2148,14 @@
       <c r="F37">
         <v>83.369100000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J37" s="4">
+        <v>99.266666666666666</v>
+      </c>
+      <c r="K37" s="4">
+        <v>97.166666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2174,14 @@
       <c r="F38">
         <v>83.44062666666666</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J38" s="4">
+        <v>97.133333333333326</v>
+      </c>
+      <c r="K38" s="4">
+        <v>95.100000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1964,8 +2200,14 @@
       <c r="F39">
         <v>83.941346666666661</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J39" s="4">
+        <v>97.399999999999991</v>
+      </c>
+      <c r="K39" s="4">
+        <v>96.866666666666674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1984,8 +2226,14 @@
       <c r="F40">
         <v>84.334763333333328</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J40" s="4">
+        <v>100.36666666666667</v>
+      </c>
+      <c r="K40" s="4">
+        <v>100.86666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2004,8 +2252,14 @@
       <c r="F41">
         <v>84.227466666666672</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J41" s="4">
+        <v>103.8</v>
+      </c>
+      <c r="K41" s="4">
+        <v>104.56666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2024,8 +2278,14 @@
       <c r="F42">
         <v>84.72818333333332</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J42" s="4">
+        <v>104.8</v>
+      </c>
+      <c r="K42" s="4">
+        <v>105.56666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2304,14 @@
       <c r="F43">
         <v>84.835480000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J43" s="4">
+        <v>105.5</v>
+      </c>
+      <c r="K43" s="4">
+        <v>103.96666666666665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2064,8 +2330,14 @@
       <c r="F44">
         <v>85.336189999999988</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J44" s="4">
+        <v>104.23333333333333</v>
+      </c>
+      <c r="K44" s="4">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2084,8 +2356,14 @@
       <c r="F45">
         <v>85.658083333333323</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J45" s="4">
+        <v>103.93333333333332</v>
+      </c>
+      <c r="K45" s="4">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2104,8 +2382,14 @@
       <c r="F46">
         <v>86.08726999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J46" s="4">
+        <v>101.7</v>
+      </c>
+      <c r="K46" s="4">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2124,8 +2408,14 @@
       <c r="F47">
         <v>86.909873333333323</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J47" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="K47" s="4">
+        <v>93.933333333333323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2144,8 +2434,14 @@
       <c r="F48">
         <v>87.160233333333323</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J48" s="4">
+        <v>94.033333333333346</v>
+      </c>
+      <c r="K48" s="4">
+        <v>92.533333333333317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2164,8 +2460,14 @@
       <c r="F49">
         <v>86.874106666666663</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J49" s="4">
+        <v>92.133333333333326</v>
+      </c>
+      <c r="K49" s="4">
+        <v>92.09999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2184,8 +2486,14 @@
       <c r="F50">
         <v>87.804003333333341</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J50" s="4">
+        <v>93.899999999999991</v>
+      </c>
+      <c r="K50" s="4">
+        <v>97.100000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2204,8 +2512,14 @@
       <c r="F51">
         <v>87.911296666666658</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J51" s="4">
+        <v>95.433333333333337</v>
+      </c>
+      <c r="K51" s="4">
+        <v>101.60000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2224,8 +2538,14 @@
       <c r="F52">
         <v>88.090130000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J52" s="4">
+        <v>94.166666666666671</v>
+      </c>
+      <c r="K52" s="4">
+        <v>98.933333333333323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2244,8 +2564,14 @@
       <c r="F53">
         <v>87.982829999999993</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J53" s="4">
+        <v>92.399999999999991</v>
+      </c>
+      <c r="K53" s="4">
+        <v>94.600000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2264,8 +2590,14 @@
       <c r="F54">
         <v>88.805436666666665</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J54" s="4">
+        <v>92.133333333333326</v>
+      </c>
+      <c r="K54" s="4">
+        <v>93.533333333333346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2284,8 +2616,14 @@
       <c r="F55">
         <v>88.66237000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J55" s="4">
+        <v>92.833333333333329</v>
+      </c>
+      <c r="K55" s="4">
+        <v>94.933333333333337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2304,8 +2642,14 @@
       <c r="F56">
         <v>89.020026666666652</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J56" s="4">
+        <v>96.566666666666663</v>
+      </c>
+      <c r="K56" s="4">
+        <v>100.93333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -2324,8 +2668,14 @@
       <c r="F57">
         <v>88.984263333333331</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J57" s="4">
+        <v>100.63333333333333</v>
+      </c>
+      <c r="K57" s="4">
+        <v>105.93333333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2344,8 +2694,14 @@
       <c r="F58">
         <v>89.735336666666669</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J58" s="4">
+        <v>100.46666666666665</v>
+      </c>
+      <c r="K58" s="4">
+        <v>104.13333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2364,8 +2720,14 @@
       <c r="F59">
         <v>90.379116666666661</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J59" s="4">
+        <v>99.100000000000009</v>
+      </c>
+      <c r="K59" s="4">
+        <v>100.76666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2384,8 +2746,14 @@
       <c r="F60">
         <v>90.772530000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J60" s="4">
+        <v>100.16666666666667</v>
+      </c>
+      <c r="K60" s="4">
+        <v>101.60000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -2404,8 +2772,14 @@
       <c r="F61">
         <v>90.879830000000013</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J61" s="4">
+        <v>100.60000000000001</v>
+      </c>
+      <c r="K61" s="4">
+        <v>101.23333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2424,8 +2798,14 @@
       <c r="F62">
         <v>91.27324666666668</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J62" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="K62" s="4">
+        <v>99.166666666666671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2444,8 +2824,14 @@
       <c r="F63">
         <v>91.881259999999997</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J63" s="4">
+        <v>97.033333333333346</v>
+      </c>
+      <c r="K63" s="4">
+        <v>96.600000000000009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -2464,8 +2850,14 @@
       <c r="F64">
         <v>92.668099999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J64" s="4">
+        <v>100.2</v>
+      </c>
+      <c r="K64" s="4">
+        <v>100.63333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2876,14 @@
       <c r="F65">
         <v>92.989983333333328</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J65" s="4">
+        <v>103.53333333333335</v>
+      </c>
+      <c r="K65" s="4">
+        <v>103.56666666666666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2504,8 +2902,14 @@
       <c r="F66">
         <v>93.168813333333333</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J66" s="4">
+        <v>106.93333333333332</v>
+      </c>
+      <c r="K66" s="4">
+        <v>106.63333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2524,8 +2928,14 @@
       <c r="F67">
         <v>93.848356666666675</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J67" s="4">
+        <v>109.53333333333335</v>
+      </c>
+      <c r="K67" s="4">
+        <v>106.53333333333335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2544,8 +2954,14 @@
       <c r="F68">
         <v>94.206006666666667</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J68" s="4">
+        <v>109.66666666666667</v>
+      </c>
+      <c r="K68" s="4">
+        <v>104.26666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2564,8 +2980,14 @@
       <c r="F69">
         <v>94.206009999999992</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J69" s="4">
+        <v>112.10000000000001</v>
+      </c>
+      <c r="K69" s="4">
+        <v>105.13333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2584,8 +3006,14 @@
       <c r="F70">
         <v>94.885553333333334</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J70" s="4">
+        <v>112.10000000000001</v>
+      </c>
+      <c r="K70" s="4">
+        <v>105.93333333333334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2604,8 +3032,14 @@
       <c r="F71">
         <v>95.708153333333328</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J71" s="4">
+        <v>112.2</v>
+      </c>
+      <c r="K71" s="4">
+        <v>106.73333333333335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2624,8 +3058,14 @@
       <c r="F72">
         <v>96.280399999999986</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J72" s="4">
+        <v>110.73333333333335</v>
+      </c>
+      <c r="K72" s="4">
+        <v>104.76666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2644,8 +3084,14 @@
       <c r="F73">
         <v>97.031473333333338</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J73" s="4">
+        <v>109.13333333333333</v>
+      </c>
+      <c r="K73" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2664,8 +3110,14 @@
       <c r="F74">
         <v>97.818313333333322</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J74" s="4">
+        <v>108.36666666666667</v>
+      </c>
+      <c r="K74" s="4">
+        <v>101.06666666666666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2684,8 +3136,14 @@
       <c r="F75">
         <v>98.605149999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J75" s="4">
+        <v>106.09999999999998</v>
+      </c>
+      <c r="K75" s="4">
+        <v>98.600000000000009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -2704,8 +3162,14 @@
       <c r="F76">
         <v>99.391983333333329</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J76" s="4">
+        <v>99</v>
+      </c>
+      <c r="K76" s="4">
+        <v>90.833333333333329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2724,8 +3188,14 @@
       <c r="F77">
         <v>98.676683333333344</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J77" s="4">
+        <v>88.899999999999991</v>
+      </c>
+      <c r="K77" s="4">
+        <v>81.333333333333329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2744,8 +3214,14 @@
       <c r="F78">
         <v>98.569383333333334</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J78" s="4">
+        <v>84.266666666666666</v>
+      </c>
+      <c r="K78" s="4">
+        <v>81.566666666666663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -2764,8 +3240,14 @@
       <c r="F79">
         <v>98.783976666666661</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J79" s="4">
+        <v>86.866666666666674</v>
+      </c>
+      <c r="K79" s="4">
+        <v>89.133333333333326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -2784,8 +3266,14 @@
       <c r="F80">
         <v>98.998566666666662</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J80" s="4">
+        <v>93.533333333333346</v>
+      </c>
+      <c r="K80" s="4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2804,8 +3292,14 @@
       <c r="F81">
         <v>99.070100000000011</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J81" s="4">
+        <v>96.833333333333329</v>
+      </c>
+      <c r="K81" s="4">
+        <v>102.83333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2824,8 +3318,14 @@
       <c r="F82">
         <v>99.391986666666654</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J82" s="4">
+        <v>99.333333333333329</v>
+      </c>
+      <c r="K82" s="4">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -2844,8 +3344,14 @@
       <c r="F83">
         <v>99.821169999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J83" s="4">
+        <v>105.36666666666667</v>
+      </c>
+      <c r="K83" s="4">
+        <v>106.73333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -2864,8 +3370,14 @@
       <c r="F84">
         <v>100.14306666666666</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J84" s="4">
+        <v>111.40000000000002</v>
+      </c>
+      <c r="K84" s="4">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -2884,8 +3396,14 @@
       <c r="F85">
         <v>100.60803333333335</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J85" s="4">
+        <v>113.76666666666667</v>
+      </c>
+      <c r="K85" s="4">
+        <v>110.73333333333335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -2904,8 +3422,14 @@
       <c r="F86">
         <v>101.50213333333333</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J86" s="4">
+        <v>113.46666666666665</v>
+      </c>
+      <c r="K86" s="4">
+        <v>108.46666666666665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2924,8 +3448,14 @@
       <c r="F87">
         <v>102.32473333333333</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J87" s="4">
+        <v>113.3</v>
+      </c>
+      <c r="K87" s="4">
+        <v>106.06666666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -2944,8 +3474,14 @@
       <c r="F88">
         <v>102.82546666666667</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J88" s="4">
+        <v>110.2</v>
+      </c>
+      <c r="K88" s="4">
+        <v>101.56666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3500,14 @@
       <c r="F89">
         <v>103.25466666666667</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J89" s="4">
+        <v>107.3</v>
+      </c>
+      <c r="K89" s="4">
+        <v>98.466666666666654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -2984,8 +3526,14 @@
       <c r="F90">
         <v>103.93419999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J90" s="4">
+        <v>107.96666666666665</v>
+      </c>
+      <c r="K90" s="4">
+        <v>100.46666666666665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3552,14 @@
       <c r="F91">
         <v>104.47063333333334</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J91" s="4">
+        <v>106.66666666666667</v>
+      </c>
+      <c r="K91" s="4">
+        <v>99.333333333333329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3024,8 +3578,14 @@
       <c r="F92">
         <v>104.93560000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J92" s="4">
+        <v>102.53333333333335</v>
+      </c>
+      <c r="K92" s="4">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3044,8 +3604,14 @@
       <c r="F93">
         <v>105.25749999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J93" s="4">
+        <v>101.56666666666666</v>
+      </c>
+      <c r="K93" s="4">
+        <v>96.100000000000009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -3064,8 +3630,14 @@
       <c r="F94">
         <v>105.82976666666667</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J94" s="4">
+        <v>105.10000000000001</v>
+      </c>
+      <c r="K94" s="4">
+        <v>101.13333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -3084,8 +3656,14 @@
       <c r="F95">
         <v>106.04436666666668</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J95" s="4">
+        <v>104.73333333333333</v>
+      </c>
+      <c r="K95" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -3104,8 +3682,14 @@
       <c r="F96">
         <v>106.68816666666667</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J96" s="4">
+        <v>107.53333333333335</v>
+      </c>
+      <c r="K96" s="4">
+        <v>103.90000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -3124,8 +3708,14 @@
       <c r="F97">
         <v>106.7239</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J97" s="4">
+        <v>109</v>
+      </c>
+      <c r="K97" s="4">
+        <v>106.39999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -3144,8 +3734,14 @@
       <c r="F98">
         <v>106.86696666666667</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J98" s="4">
+        <v>110.83333333333333</v>
+      </c>
+      <c r="K98" s="4">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -3164,8 +3760,14 @@
       <c r="F99">
         <v>107.04576666666668</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J99" s="4">
+        <v>110.03333333333335</v>
+      </c>
+      <c r="K99" s="4">
+        <v>105.40000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -3184,8 +3786,14 @@
       <c r="F100">
         <v>107.5107</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J100" s="4">
+        <v>106.76666666666665</v>
+      </c>
+      <c r="K100" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -3204,8 +3812,14 @@
       <c r="F101">
         <v>107.1888</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J101" s="4">
+        <v>104.5</v>
+      </c>
+      <c r="K101" s="4">
+        <v>100.09999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -3224,8 +3838,14 @@
       <c r="F102">
         <v>106.79543333333334</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J102" s="4">
+        <v>107.2</v>
+      </c>
+      <c r="K102" s="4">
+        <v>102.83333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -3244,8 +3864,14 @@
       <c r="F103">
         <v>107.43916666666667</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J103" s="4">
+        <v>108.33333333333333</v>
+      </c>
+      <c r="K103" s="4">
+        <v>102.86666666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -3264,8 +3890,14 @@
       <c r="F104">
         <v>107.54646666666667</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J104" s="4">
+        <v>108.43333333333334</v>
+      </c>
+      <c r="K104" s="4">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -3284,8 +3916,14 @@
       <c r="F105">
         <v>107.40339999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J105" s="4">
+        <v>108.46666666666665</v>
+      </c>
+      <c r="K105" s="4">
+        <v>104.10000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -3304,8 +3942,14 @@
       <c r="F106">
         <v>106.90273333333333</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J106" s="4">
+        <v>106.7</v>
+      </c>
+      <c r="K106" s="4">
+        <v>100.63333333333334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -3324,8 +3968,14 @@
       <c r="F107">
         <v>107.40339999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J107" s="4">
+        <v>107.86666666666667</v>
+      </c>
+      <c r="K107" s="4">
+        <v>101.93333333333334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -3344,8 +3994,14 @@
       <c r="F108">
         <v>107.97566666666667</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J108" s="4">
+        <v>108.06666666666668</v>
+      </c>
+      <c r="K108" s="4">
+        <v>102.23333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -3364,8 +4020,14 @@
       <c r="F109">
         <v>108.51216666666666</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J109" s="4">
+        <v>110.66666666666667</v>
+      </c>
+      <c r="K109" s="4">
+        <v>105.59999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3374,6 +4036,12 @@
       </c>
       <c r="F110">
         <v>108.90560000000001</v>
+      </c>
+      <c r="J110" s="4">
+        <v>111.13333333333333</v>
+      </c>
+      <c r="K110" s="4">
+        <v>104.39999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/ger_gdp_hicp.xlsx
+++ b/data/ger_gdp_hicp.xlsx
@@ -351,9 +351,6 @@
     <t>industrial</t>
   </si>
   <si>
-    <t>Q1-2017</t>
-  </si>
-  <si>
     <t>gdp</t>
   </si>
   <si>
@@ -385,15 +382,15 @@
   </si>
   <si>
     <t>hicp</t>
+  </si>
+  <si>
+    <t>lgdp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000E+00"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -894,13 +891,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1258,2806 +1254,3225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B4" si="0">B3/(1+C2/100)</f>
+        <f>B3/(1+D2/100)</f>
         <v>480758335089.16418</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <f>LN(B2)</f>
+        <v>26.898630558943974</v>
+      </c>
+      <c r="D2">
         <v>2.075707</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>79.711479999999995</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>101.85760000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="0"/>
+        <f>B4/(1+D3/100)</f>
         <v>490737469503.69342</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C66" si="0">LN(B3)</f>
+        <v>26.91917513641723</v>
+      </c>
+      <c r="D3">
         <v>0.49165999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>79.912769999999995</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>102.7133</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
+        <f>B5/(1+D4/100)</f>
         <v>493150229346.25531</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>26.924079689410192</v>
+      </c>
+      <c r="D4">
         <v>2.1059350000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>81.892139999999998</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>110.9457</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="3">
-        <f>B6/(1+C5/100)</f>
+        <f>B6/(1+D5/100)</f>
         <v>503535652628.63837</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>26.944920356188295</v>
+      </c>
+      <c r="D5">
         <v>1.760421</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>82.764399999999995</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>108.4966</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>512400000000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>26.962371406968991</v>
+      </c>
+      <c r="D6">
         <v>2.8889680000000002</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>85.179900000000004</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>113.9554</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="3">
         <v>109.26666666666665</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>510300000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>26.958264625016337</v>
+      </c>
+      <c r="D7">
         <v>-0.40281800000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>83.871510000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>113.4243</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="3">
         <v>107.13333333333333</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="3">
         <v>101.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>507800000000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>26.953353506216988</v>
+      </c>
+      <c r="D8">
         <v>-0.50555700000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>82.261179999999996</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>110.9752</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="3">
         <v>104.93333333333334</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="3">
         <v>100.86666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>514300000000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>26.966072589727283</v>
+      </c>
+      <c r="D9">
         <v>1.2830299999999999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>83.67022</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>109.6474</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="3">
         <v>105</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="3">
         <v>101.56666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>522600000000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>26.982082190032923</v>
+      </c>
+      <c r="D10">
         <v>1.617964</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>85.146349999999998</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>110.5031</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="3">
         <v>101.7</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="3">
         <v>99.100000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>519000000000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>26.975169720112302</v>
+      </c>
+      <c r="D11">
         <v>-0.67884599999999995</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>82.898600000000002</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>108.4376</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="3">
         <v>99.40000000000002</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="3">
         <v>98.133333333333326</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>517600000000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>26.972468580133103</v>
+      </c>
+      <c r="D12">
         <v>-0.273399</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>80.382450000000006</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>108.6442</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="3">
         <v>95.033333333333346</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="3">
         <v>93.866666666666674</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>516500000000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>26.970341125506103</v>
+      </c>
+      <c r="D13">
         <v>-0.224296</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>78.537279999999996</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>110.73909999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="3">
         <v>89.133333333333326</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="3">
         <v>87.233333333333348</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>511900000000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>26.961395130409947</v>
+      </c>
+      <c r="D14">
         <v>-0.88361699999999999</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>75.886939999999996</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>105.1919</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="3">
         <v>87.966666666666654</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="3">
         <v>89.866666666666674</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>512200000000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>26.961981010711835</v>
+      </c>
+      <c r="D15">
         <v>6.3007999999999995E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>74.679190000000006</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>104.21810000000001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="3">
         <v>88</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="3">
         <v>91.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>515800000000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>26.968984930393656</v>
+      </c>
+      <c r="D16">
         <v>0.70519699999999996</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>74.645650000000003</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>106.1951</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="3">
         <v>90.100000000000009</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="3">
         <v>95.333333333333329</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>515400000000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>26.968209135164678</v>
+      </c>
+      <c r="D17">
         <v>-8.7529999999999997E-2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>75.350170000000006</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>104.21810000000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="3">
         <v>91.833333333333329</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="3">
         <v>98.066666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>521800000000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>26.980550209649039</v>
+      </c>
+      <c r="D18">
         <v>1.245285</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>76.021129999999999</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>104.05070000000001</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="3">
         <v>95.033333333333317</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="3">
         <v>101.2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>523600000000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>26.983993870982157</v>
+      </c>
+      <c r="D19">
         <v>0.346105</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>76.994039999999998</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>102.35039999999999</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="3">
         <v>99.933333333333323</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="3">
         <v>106.03333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>527500000000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>26.991414702296634</v>
+      </c>
+      <c r="D20">
         <v>0.75141599999999997</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>77.228880000000004</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>103.18389999999999</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="3">
         <v>102.16666666666667</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="3">
         <v>106.33333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>534400000000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>27.004410459168849</v>
+      </c>
+      <c r="D21">
         <v>1.296</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>79.711479999999995</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>103.71729999999999</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="3">
         <v>105.2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="3">
         <v>108.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>532100000000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>27.000097278548736</v>
+      </c>
+      <c r="D22">
         <v>-0.42238799999999999</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>78.671480000000003</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>104.7175</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="3">
         <v>103.76666666666665</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>536700000000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>27.008705116129196</v>
+      </c>
+      <c r="D23">
         <v>0.86060599999999998</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>79.040509999999998</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>105.1842</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="3">
         <v>100.60000000000001</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="3">
         <v>99.600000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>538400000000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>27.01186761527693</v>
+      </c>
+      <c r="D24">
         <v>0.32447300000000001</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>78.335989999999995</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>104.6174</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="3">
         <v>97.8</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="3">
         <v>97.466666666666654</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>538200000000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>27.011496075239215</v>
+      </c>
+      <c r="D25">
         <v>-3.5935000000000002E-2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>77.228880000000004</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>104.084</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="3">
         <v>96.566666666666677</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="3">
         <v>96.899999999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>532800000000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>27.001411956172589</v>
+      </c>
+      <c r="D26">
         <v>-1.006564</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>77.228880000000004</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>103.8173</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>81.402003333333326</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="3">
         <v>94</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="3">
         <v>95.133333333333326</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>540400000000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>27.015575443032454</v>
+      </c>
+      <c r="D27">
         <v>1.4283950000000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>77.698560000000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>103.98399999999999</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>81.688130000000001</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="3">
         <v>93.066666666666663</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="3">
         <v>95.09999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>543800000000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>27.02184736914478</v>
+      </c>
+      <c r="D28">
         <v>0.62060300000000002</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>78.268889999999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>104.184</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>81.902716666666677</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="3">
         <v>95.7</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="3">
         <v>98.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>546800000000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>27.027348941796205</v>
+      </c>
+      <c r="D29">
         <v>0.55746600000000002</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>78.671480000000003</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>102.7505</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>81.866953333333342</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="3">
         <v>97.600000000000009</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="3">
         <v>100.86666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>543400000000</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>27.021111533938658</v>
+      </c>
+      <c r="D30">
         <v>-0.61927399999999999</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>79.006960000000007</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>102.4837</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>82.689556666666661</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="3">
         <v>98.399999999999991</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="3">
         <v>101.26666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>551200000000</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>27.035363556645859</v>
+      </c>
+      <c r="D31">
         <v>1.4243269999999999</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>80.046970000000002</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>103.15049999999999</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>82.796853333333331</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="3">
         <v>99.7</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="3">
         <v>101.13333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>553300000000</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>27.039166186850476</v>
+      </c>
+      <c r="D32">
         <v>0.386189</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>80.986329999999995</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>100.8168</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>83.226036666666673</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="3">
         <v>102.23333333333335</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="3">
         <v>103.66666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>557200000000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>27.04619007885206</v>
+      </c>
+      <c r="D33">
         <v>0.71112200000000003</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>82.261179999999996</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>101.51690000000001</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>83.082973333333328</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="3">
         <v>104.56666666666666</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="3">
         <v>105.23333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>561700000000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>27.054233736484797</v>
+      </c>
+      <c r="D34">
         <v>0.79575600000000002</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>84.005709999999993</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>102.8505</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>83.190269999999998</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="3">
         <v>104</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="3">
         <v>103.13333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>559900000000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>27.05102403330126</v>
+      </c>
+      <c r="D35">
         <v>-0.31006</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>84.106350000000006</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>101.4169</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>83.512159999999994</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="3">
         <v>103.89999999999999</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="3">
         <v>102.73333333333335</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>561400000000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>27.053699500874192</v>
+      </c>
+      <c r="D36">
         <v>0.26494600000000001</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>84.039249999999996</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>102.2504</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>83.72675333333332</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="3">
         <v>102.13333333333333</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="3">
         <v>99.866666666666674</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>561200000000</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>27.053343185174718</v>
+      </c>
+      <c r="D37">
         <v>-3.4467999999999999E-2</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>82.932140000000004</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>103.2505</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>83.369100000000003</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="3">
         <v>99.266666666666666</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="3">
         <v>97.166666666666671</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>565800000000</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>27.061506495813877</v>
+      </c>
+      <c r="D38">
         <v>0.81600099999999998</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>83.334729999999993</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>103.2839</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>83.44062666666666</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="3">
         <v>97.133333333333326</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="3">
         <v>95.100000000000009</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>567000000000</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>27.063625140674162</v>
+      </c>
+      <c r="D39">
         <v>0.20519499999999999</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>84.005709999999993</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>101.2835</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>83.941346666666661</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="3">
         <v>97.399999999999991</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="3">
         <v>96.866666666666674</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>572900000000</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>27.073977018360942</v>
+      </c>
+      <c r="D40">
         <v>1.0466500000000001</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>85.247</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>101.0502</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>84.334763333333328</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="3">
         <v>100.36666666666667</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="3">
         <v>100.86666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>580100000000</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>27.086466339418429</v>
+      </c>
+      <c r="D41">
         <v>1.2497210000000001</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>86.219909999999999</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>102.4837</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>84.227466666666672</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="3">
         <v>103.8</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="3">
         <v>104.56666666666668</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>585600000000</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>27.095902799593514</v>
+      </c>
+      <c r="D42">
         <v>0.94793300000000003</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>86.991529999999997</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>103.0838</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>84.72818333333332</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="3">
         <v>104.8</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="3">
         <v>105.56666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>591500000000</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>27.105927520364851</v>
+      </c>
+      <c r="D43">
         <v>1.013441</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>89.541219999999996</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>103.71729999999999</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>84.835480000000004</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="3">
         <v>105.5</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="3">
         <v>103.96666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>590600000000</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>27.104404806256234</v>
+      </c>
+      <c r="D44">
         <v>-0.152672</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>91.084460000000007</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>102.61709999999999</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>85.336189999999988</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="3">
         <v>104.23333333333333</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="3">
         <v>102.2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>591000000000</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>27.105081854352509</v>
+      </c>
+      <c r="D45">
         <v>7.6455999999999996E-2</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>91.721890000000002</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>103.1172</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>85.658083333333323</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="3">
         <v>103.93333333333332</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="3">
         <v>101.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>600800000000</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>27.121527937396337</v>
+      </c>
+      <c r="D46">
         <v>1.647886</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>92.191559999999996</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>104.184</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>86.08726999999999</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="3">
         <v>101.7</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="3">
         <v>98.7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>601300000000</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>27.122359814991935</v>
+      </c>
+      <c r="D47">
         <v>8.5888000000000006E-2</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>90.849620000000002</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>103.71729999999999</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>86.909873333333323</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="3">
         <v>96.8</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="3">
         <v>93.933333333333323</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>599500000000</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>27.119361811413981</v>
+      </c>
+      <c r="D48">
         <v>-0.30036800000000002</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>89.977360000000004</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>103.0505</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>87.160233333333323</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="3">
         <v>94.033333333333346</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="3">
         <v>92.533333333333317</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>600300000000</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>27.12069536720421</v>
+      </c>
+      <c r="D49">
         <v>0.139873</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>87.863789999999995</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>102.4837</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>86.874106666666663</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="3">
         <v>92.133333333333326</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="3">
         <v>92.09999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>598300000000</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>27.117358137342396</v>
+      </c>
+      <c r="D50">
         <v>-0.33308300000000002</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>88.50121</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>100.05</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>87.804003333333341</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="3">
         <v>93.899999999999991</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="3">
         <v>97.100000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>599900000000</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>27.120028811605458</v>
+      </c>
+      <c r="D51">
         <v>0.26951799999999998</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>89.172190000000001</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>100.98350000000001</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>87.911296666666658</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="3">
         <v>95.433333333333337</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="3">
         <v>101.60000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>602700000000</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>27.12468539743541</v>
+      </c>
+      <c r="D52">
         <v>0.462314</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>89.742519999999999</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>101.1835</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>88.090130000000002</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="3">
         <v>94.166666666666671</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="3">
         <v>98.933333333333323</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>601500000000</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>27.122692372361143</v>
+      </c>
+      <c r="D53">
         <v>-0.203345</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>89.373480000000001</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>100.68340000000001</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>87.982829999999993</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="3">
         <v>92.399999999999991</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="3">
         <v>94.600000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>594100000000</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>27.110313492308109</v>
+      </c>
+      <c r="D54">
         <v>-1.225171</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>89.474130000000002</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>99.283209999999997</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>88.805436666666665</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="3">
         <v>92.133333333333326</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="3">
         <v>93.533333333333346</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>594300000000</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>27.110650079319026</v>
+      </c>
+      <c r="D55">
         <v>3.2577000000000002E-2</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>88.601860000000002</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>99.883319999999998</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>88.66237000000001</v>
       </c>
-      <c r="J55" s="4">
+      <c r="K55" s="3">
         <v>92.833333333333329</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="3">
         <v>94.933333333333337</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>597300000000</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>27.11568533668467</v>
+      </c>
+      <c r="D56">
         <v>0.49923200000000001</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>88.534769999999995</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>99.549930000000003</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>89.020026666666652</v>
       </c>
-      <c r="J56" s="4">
+      <c r="K56" s="3">
         <v>96.566666666666663</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L56" s="3">
         <v>100.93333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>51</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>599500000000</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>27.119361811413981</v>
+      </c>
+      <c r="D57">
         <v>0.367172</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>90.883160000000004</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>100.11669999999999</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>88.984263333333331</v>
       </c>
-      <c r="J57" s="4">
+      <c r="K57" s="3">
         <v>100.63333333333333</v>
       </c>
-      <c r="K57" s="4">
+      <c r="L57" s="3">
         <v>105.93333333333334</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>599300000000</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>27.119028144410549</v>
+      </c>
+      <c r="D58">
         <v>-2.1513999999999998E-2</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>91.017359999999996</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>100.9502</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>89.735336666666669</v>
       </c>
-      <c r="J58" s="4">
+      <c r="K58" s="3">
         <v>100.46666666666665</v>
       </c>
-      <c r="K58" s="4">
+      <c r="L58" s="3">
         <v>104.13333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>53</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>601400000000</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>27.122526107500839</v>
+      </c>
+      <c r="D59">
         <v>0.34437899999999999</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>92.493499999999997</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>101.25020000000001</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>90.379116666666661</v>
       </c>
-      <c r="J59" s="4">
+      <c r="K59" s="3">
         <v>99.100000000000009</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L59" s="3">
         <v>100.76666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>54</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>600300000000</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>27.12069536720421</v>
+      </c>
+      <c r="D60">
         <v>-0.193049</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>92.795439999999999</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>101.2169</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>90.772530000000003</v>
       </c>
-      <c r="J60" s="4">
+      <c r="K60" s="3">
         <v>100.16666666666667</v>
       </c>
-      <c r="K60" s="4">
+      <c r="L60" s="3">
         <v>101.60000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>600800000000</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>27.121527937396337</v>
+      </c>
+      <c r="D61">
         <v>9.6711000000000005E-2</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>92.292209999999997</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>101.6836</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>90.879830000000013</v>
       </c>
-      <c r="J61" s="4">
+      <c r="K61" s="3">
         <v>100.60000000000001</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="3">
         <v>101.23333333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>599700000000</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>27.119695367120876</v>
+      </c>
+      <c r="D62">
         <v>-0.190583</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>93.701250000000002</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>103.0172</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>91.27324666666668</v>
       </c>
-      <c r="J62" s="4">
+      <c r="K62" s="3">
         <v>99.3</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="3">
         <v>99.166666666666671</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>57</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>603800000000</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>27.12650885421915</v>
+      </c>
+      <c r="D63">
         <v>0.67764100000000005</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>94.573520000000002</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>102.217</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>91.881259999999997</v>
       </c>
-      <c r="J63" s="4">
+      <c r="K63" s="3">
         <v>97.033333333333346</v>
       </c>
-      <c r="K63" s="4">
+      <c r="L63" s="3">
         <v>96.600000000000009</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>608600000000</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>27.134427074409281</v>
+      </c>
+      <c r="D64">
         <v>0.801288</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>95.982550000000003</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>102.7838</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>92.668099999999995</v>
       </c>
-      <c r="J64" s="4">
+      <c r="K64" s="3">
         <v>100.2</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L64" s="3">
         <v>100.63333333333333</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>610900000000</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>27.138199116602131</v>
+      </c>
+      <c r="D65">
         <v>0.381554</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>97.928380000000004</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>102.7838</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>92.989983333333328</v>
       </c>
-      <c r="J65" s="4">
+      <c r="K65" s="3">
         <v>103.53333333333335</v>
       </c>
-      <c r="K65" s="4">
+      <c r="L65" s="3">
         <v>103.56666666666666</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>616700000000</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>27.147648518943857</v>
+      </c>
+      <c r="D66">
         <v>0.93961099999999997</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>97.928380000000004</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>102.7171</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>93.168813333333333</v>
       </c>
-      <c r="J66" s="4">
+      <c r="K66" s="3">
         <v>106.93333333333332</v>
       </c>
-      <c r="K66" s="4">
+      <c r="L66" s="3">
         <v>106.63333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>61</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>626400000000</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C109" si="1">LN(B67)</f>
+        <v>27.163254981623005</v>
+      </c>
+      <c r="D67">
         <v>1.5794950000000001</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>100.5116</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>103.3506</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>93.848356666666675</v>
       </c>
-      <c r="J67" s="4">
+      <c r="K67" s="3">
         <v>109.53333333333335</v>
       </c>
-      <c r="K67" s="4">
+      <c r="L67" s="3">
         <v>106.53333333333335</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>632700000000</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>27.17326221309925</v>
+      </c>
+      <c r="D68">
         <v>1.0091619999999999</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>102.7594</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>102.5504</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>94.206006666666667</v>
       </c>
-      <c r="J68" s="4">
+      <c r="K68" s="3">
         <v>109.66666666666667</v>
       </c>
-      <c r="K68" s="4">
+      <c r="L68" s="3">
         <v>104.26666666666667</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>641000000000</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>27.186295293867079</v>
+      </c>
+      <c r="D69">
         <v>1.315118</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>104.3026</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>103.48390000000001</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>94.206009999999992</v>
       </c>
-      <c r="J69" s="4">
+      <c r="K69" s="3">
         <v>112.10000000000001</v>
       </c>
-      <c r="K69" s="4">
+      <c r="L69" s="3">
         <v>105.13333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>643700000000</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>27.19049861600498</v>
+      </c>
+      <c r="D70">
         <v>0.42004599999999997</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>106.44970000000001</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>102.1504</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>94.885553333333334</v>
       </c>
-      <c r="J70" s="4">
+      <c r="K70" s="3">
         <v>112.10000000000001</v>
       </c>
-      <c r="K70" s="4">
+      <c r="L70" s="3">
         <v>105.93333333333334</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>65</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>648400000000</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>27.197773626807933</v>
+      </c>
+      <c r="D71">
         <v>0.721445</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>107.1878</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>102.5171</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>95.708153333333328</v>
       </c>
-      <c r="J71" s="4">
+      <c r="K71" s="3">
         <v>112.2</v>
       </c>
-      <c r="K71" s="4">
+      <c r="L71" s="3">
         <v>106.73333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>653900000000</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>27.20622027151364</v>
+      </c>
+      <c r="D72">
         <v>0.84560500000000005</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>109.16719999999999</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>101.917</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>96.280399999999986</v>
       </c>
-      <c r="J72" s="4">
+      <c r="K72" s="3">
         <v>110.73333333333335</v>
       </c>
-      <c r="K72" s="4">
+      <c r="L72" s="3">
         <v>104.76666666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>655700000000</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
+        <f t="shared" si="1"/>
+        <v>27.208969204215986</v>
+      </c>
+      <c r="D73">
         <v>0.286082</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>110.34139999999999</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>100.5168</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>97.031473333333338</v>
       </c>
-      <c r="J73" s="4">
+      <c r="K73" s="3">
         <v>109.13333333333333</v>
       </c>
-      <c r="K73" s="4">
+      <c r="L73" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>661400000000</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>27.217624637494104</v>
+      </c>
+      <c r="D74">
         <v>0.86811799999999995</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>112.0523</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>101.9837</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>97.818313333333322</v>
       </c>
-      <c r="J74" s="4">
+      <c r="K74" s="3">
         <v>108.36666666666667</v>
       </c>
-      <c r="K74" s="4">
+      <c r="L74" s="3">
         <v>101.06666666666666</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>659700000000</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>27.215051023175235</v>
+      </c>
+      <c r="D75">
         <v>-0.25356699999999999</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>110.6097</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>100.7835</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>98.605149999999995</v>
       </c>
-      <c r="J75" s="4">
+      <c r="K75" s="3">
         <v>106.09999999999998</v>
       </c>
-      <c r="K75" s="4">
+      <c r="L75" s="3">
         <v>98.600000000000009</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>657300000000</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
+        <f t="shared" si="1"/>
+        <v>27.21140637221594</v>
+      </c>
+      <c r="D76">
         <v>-0.37152299999999999</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>109.402</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>101.5836</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>99.391983333333329</v>
       </c>
-      <c r="J76" s="4">
+      <c r="K76" s="3">
         <v>99</v>
       </c>
-      <c r="K76" s="4">
+      <c r="L76" s="3">
         <v>90.833333333333329</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>644500000000</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>27.191740659325653</v>
+      </c>
+      <c r="D77">
         <v>-1.9430890000000001</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>101.7865</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>102.05029999999999</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>98.676683333333344</v>
       </c>
-      <c r="J77" s="4">
+      <c r="K77" s="3">
         <v>88.899999999999991</v>
       </c>
-      <c r="K77" s="4">
+      <c r="L77" s="3">
         <v>81.333333333333329</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>615600000000</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
+        <f t="shared" si="1"/>
+        <v>27.145863238911137</v>
+      </c>
+      <c r="D78">
         <v>-4.4834449999999997</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>88.299930000000003</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>98.983159999999998</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>98.569383333333334</v>
       </c>
-      <c r="J78" s="4">
+      <c r="K78" s="3">
         <v>84.266666666666666</v>
       </c>
-      <c r="K78" s="4">
+      <c r="L78" s="3">
         <v>81.566666666666663</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>616100000000</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
+        <f t="shared" si="1"/>
+        <v>27.146675124966936</v>
+      </c>
+      <c r="D79">
         <v>8.3822999999999995E-2</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>87.796689999999998</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>98.516419999999997</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>98.783976666666661</v>
       </c>
-      <c r="J79" s="4">
+      <c r="K79" s="3">
         <v>86.866666666666674</v>
       </c>
-      <c r="K79" s="4">
+      <c r="L79" s="3">
         <v>89.133333333333326</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>619800000000</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
+        <f t="shared" si="1"/>
+        <v>27.152662682300058</v>
+      </c>
+      <c r="D80">
         <v>0.59673699999999996</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>90.715419999999995</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>98.283050000000003</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>98.998566666666662</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K80" s="3">
         <v>93.533333333333346</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="3">
         <v>99.3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>625400000000</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
+        <f t="shared" si="1"/>
+        <v>27.161657281970154</v>
+      </c>
+      <c r="D81">
         <v>0.89499399999999996</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>92.426400000000001</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>99.416569999999993</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>99.070100000000011</v>
       </c>
-      <c r="J81" s="4">
+      <c r="K81" s="3">
         <v>96.833333333333329</v>
       </c>
-      <c r="K81" s="4">
+      <c r="L81" s="3">
         <v>102.83333333333333</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>630100000000</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
+        <f t="shared" si="1"/>
+        <v>27.169144373894422</v>
+      </c>
+      <c r="D82">
         <v>0.76065000000000005</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>94.070279999999997</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>99.016499999999994</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>99.391986666666654</v>
       </c>
-      <c r="J82" s="4">
+      <c r="K82" s="3">
         <v>99.333333333333329</v>
       </c>
-      <c r="K82" s="4">
+      <c r="L82" s="3">
         <v>103.5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>643100000000</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
+        <f t="shared" si="1"/>
+        <v>27.189566070087228</v>
+      </c>
+      <c r="D83">
         <v>2.0575320000000001</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>99.471609999999998</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>100.15</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>99.821169999999995</v>
       </c>
-      <c r="J83" s="4">
+      <c r="K83" s="3">
         <v>105.36666666666667</v>
       </c>
-      <c r="K83" s="4">
+      <c r="L83" s="3">
         <v>106.73333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>648100000000</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
+        <f t="shared" si="1"/>
+        <v>27.19731084238008</v>
+      </c>
+      <c r="D84">
         <v>0.78234099999999995</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>101.3503</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>100.8835</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>100.14306666666666</v>
       </c>
-      <c r="J84" s="4">
+      <c r="K84" s="3">
         <v>111.40000000000002</v>
       </c>
-      <c r="K84" s="4">
+      <c r="L84" s="3">
         <v>109.7</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>653400000000</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
+        <f t="shared" si="1"/>
+        <v>27.205455336113381</v>
+      </c>
+      <c r="D85">
         <v>0.81608899999999995</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>105.1078</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>100.38339999999999</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>100.60803333333335</v>
       </c>
-      <c r="J85" s="4">
+      <c r="K85" s="3">
         <v>113.76666666666667</v>
       </c>
-      <c r="K85" s="4">
+      <c r="L85" s="3">
         <v>110.73333333333335</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>665300000000</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
+        <f t="shared" si="1"/>
+        <v>27.223503903694255</v>
+      </c>
+      <c r="D86">
         <v>1.823801</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>106.7852</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>100.98350000000001</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>101.50213333333333</v>
       </c>
-      <c r="J86" s="4">
+      <c r="K86" s="3">
         <v>113.46666666666665</v>
       </c>
-      <c r="K86" s="4">
+      <c r="L86" s="3">
         <v>108.46666666666665</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>666400000000</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
+        <f t="shared" si="1"/>
+        <v>27.225155927799044</v>
+      </c>
+      <c r="D87">
         <v>0.16480400000000001</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>108.5633</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>100.3501</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>102.32473333333333</v>
       </c>
-      <c r="J87" s="4">
+      <c r="K87" s="3">
         <v>113.3</v>
       </c>
-      <c r="K87" s="4">
+      <c r="L87" s="3">
         <v>106.06666666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>82</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>669400000000</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
+        <f t="shared" si="1"/>
+        <v>27.229647625723636</v>
+      </c>
+      <c r="D88">
         <v>0.454905</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>110.1065</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>101.55029999999999</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>102.82546666666667</v>
       </c>
-      <c r="J88" s="4">
+      <c r="K88" s="3">
         <v>110.2</v>
       </c>
-      <c r="K88" s="4">
+      <c r="L88" s="3">
         <v>101.56666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>83</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>669300000000</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
+        <f t="shared" si="1"/>
+        <v>27.229498227053007</v>
+      </c>
+      <c r="D89">
         <v>-1.9279000000000001E-2</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>108.8652</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>101.6169</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>103.25466666666667</v>
       </c>
-      <c r="J89" s="4">
+      <c r="K89" s="3">
         <v>107.3</v>
       </c>
-      <c r="K89" s="4">
+      <c r="L89" s="3">
         <v>98.466666666666654</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>84</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>671900000000</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>27.233375356872514</v>
+      </c>
+      <c r="D90">
         <v>0.38548900000000003</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>108.4962</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>100.71680000000001</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>103.93419999999999</v>
       </c>
-      <c r="J90" s="4">
+      <c r="K90" s="3">
         <v>107.96666666666665</v>
       </c>
-      <c r="K90" s="4">
+      <c r="L90" s="3">
         <v>100.46666666666665</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>672500000000</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>27.234267948422406</v>
+      </c>
+      <c r="D91">
         <v>8.6396000000000001E-2</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>108.2278</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>101.4169</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>104.47063333333334</v>
       </c>
-      <c r="J91" s="4">
+      <c r="K91" s="3">
         <v>106.66666666666667</v>
       </c>
-      <c r="K91" s="4">
+      <c r="L91" s="3">
         <v>99.333333333333329</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>673800000000</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>27.236199167918862</v>
+      </c>
+      <c r="D92">
         <v>0.20141400000000001</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>108.73099999999999</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>101.1169</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>104.93560000000001</v>
       </c>
-      <c r="J92" s="4">
+      <c r="K92" s="3">
         <v>102.53333333333335</v>
       </c>
-      <c r="K92" s="4">
+      <c r="L92" s="3">
         <v>94.8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>670600000000</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>27.231438670978541</v>
+      </c>
+      <c r="D93">
         <v>-0.478599</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>106.08069999999999</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>100.4834</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>105.25749999999999</v>
       </c>
-      <c r="J93" s="4">
+      <c r="K93" s="3">
         <v>101.56666666666666</v>
       </c>
-      <c r="K93" s="4">
+      <c r="L93" s="3">
         <v>96.100000000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>88</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>669500000000</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>27.229797002077639</v>
+      </c>
+      <c r="D94">
         <v>-0.168349</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>106.1142</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>101.0835</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>105.82976666666667</v>
       </c>
-      <c r="J94" s="4">
+      <c r="K94" s="3">
         <v>105.10000000000001</v>
       </c>
-      <c r="K94" s="4">
+      <c r="L94" s="3">
         <v>101.13333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>675600000000</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>27.238867021880058</v>
+      </c>
+      <c r="D95">
         <v>0.91530400000000001</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>107.8588</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>101.3502</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>106.04436666666668</v>
       </c>
-      <c r="J95" s="4">
+      <c r="K95" s="3">
         <v>104.73333333333333</v>
       </c>
-      <c r="K95" s="4">
+      <c r="L95" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>678600000000</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>27.24329768929654</v>
+      </c>
+      <c r="D96">
         <v>0.44873299999999999</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>108.3955</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>101.6169</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>106.68816666666667</v>
       </c>
-      <c r="J96" s="4">
+      <c r="K96" s="3">
         <v>107.53333333333335</v>
       </c>
-      <c r="K96" s="4">
+      <c r="L96" s="3">
         <v>103.90000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>91</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>681200000000</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>27.247121785734944</v>
+      </c>
+      <c r="D97">
         <v>0.37068600000000002</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>109.7039</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>101.2835</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>106.7239</v>
       </c>
-      <c r="J97" s="4">
+      <c r="K97" s="3">
         <v>109</v>
       </c>
-      <c r="K97" s="4">
+      <c r="L97" s="3">
         <v>106.39999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>92</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>685200000000</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
+        <f t="shared" si="1"/>
+        <v>27.252976603396377</v>
+      </c>
+      <c r="D98">
         <v>0.591831</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>110.2743</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>102.5504</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>106.86696666666667</v>
       </c>
-      <c r="J98" s="4">
+      <c r="K98" s="3">
         <v>110.83333333333333</v>
       </c>
-      <c r="K98" s="4">
+      <c r="L98" s="3">
         <v>107.5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>93</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>684500000000</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
+        <f t="shared" si="1"/>
+        <v>27.251954481674915</v>
+      </c>
+      <c r="D99">
         <v>-0.10355</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>109.5697</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>102.5171</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>107.04576666666668</v>
       </c>
-      <c r="J99" s="4">
+      <c r="K99" s="3">
         <v>110.03333333333335</v>
       </c>
-      <c r="K99" s="4">
+      <c r="L99" s="3">
         <v>105.40000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>686400000000</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
+        <f t="shared" si="1"/>
+        <v>27.254726385120165</v>
+      </c>
+      <c r="D100">
         <v>0.28270299999999998</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>109.53619999999999</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>102.3171</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>107.5107</v>
       </c>
-      <c r="J100" s="4">
+      <c r="K100" s="3">
         <v>106.76666666666665</v>
       </c>
-      <c r="K100" s="4">
+      <c r="L100" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>691800000000</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
+        <f t="shared" si="1"/>
+        <v>27.262562733449478</v>
+      </c>
+      <c r="D101">
         <v>0.789327</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>110.7775</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>103.5506</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>107.1888</v>
       </c>
-      <c r="J101" s="4">
+      <c r="K101" s="3">
         <v>104.5</v>
       </c>
-      <c r="K101" s="4">
+      <c r="L101" s="3">
         <v>100.09999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>96</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>693000000000</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
+        <f t="shared" si="1"/>
+        <v>27.264295836136313</v>
+      </c>
+      <c r="D102">
         <v>0.17016300000000001</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>110.17359999999999</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>104.85080000000001</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>106.79543333333334</v>
       </c>
-      <c r="J102" s="4">
+      <c r="K102" s="3">
         <v>107.2</v>
       </c>
-      <c r="K102" s="4">
+      <c r="L102" s="3">
         <v>102.83333333333333</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>97</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>696600000000</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>27.269477194878313</v>
+      </c>
+      <c r="D103">
         <v>0.52122599999999997</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>110.8781</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>104.9508</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>107.43916666666667</v>
       </c>
-      <c r="J103" s="4">
+      <c r="K103" s="3">
         <v>108.33333333333333</v>
       </c>
-      <c r="K103" s="4">
+      <c r="L103" s="3">
         <v>102.86666666666667</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>698300000000</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>27.2719146467984</v>
+      </c>
+      <c r="D104">
         <v>0.24073700000000001</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>110.5091</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>105.6176</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>107.54646666666667</v>
       </c>
-      <c r="J104" s="4">
+      <c r="K104" s="3">
         <v>108.43333333333334</v>
       </c>
-      <c r="K104" s="4">
+      <c r="L104" s="3">
         <v>102.7</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>99</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>700800000000</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>27.275488376568592</v>
+      </c>
+      <c r="D105">
         <v>0.36024400000000001</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>110.3078</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>105.8176</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>107.40339999999999</v>
       </c>
-      <c r="J105" s="4">
+      <c r="K105" s="3">
         <v>108.46666666666665</v>
       </c>
-      <c r="K105" s="4">
+      <c r="L105" s="3">
         <v>104.10000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>705800000000</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
+        <f t="shared" si="1"/>
+        <v>27.28259774818758</v>
+      </c>
+      <c r="D106">
         <v>0.715615</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>112.0523</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>106.51779999999999</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>106.90273333333333</v>
       </c>
-      <c r="J106" s="4">
+      <c r="K106" s="3">
         <v>106.7</v>
       </c>
-      <c r="K106" s="4">
+      <c r="L106" s="3">
         <v>100.63333333333334</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>709100000000</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
+        <f t="shared" si="1"/>
+        <v>27.287262397256363</v>
+      </c>
+      <c r="D107">
         <v>0.46605000000000002</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>111.5491</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>106.3511</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>107.40339999999999</v>
       </c>
-      <c r="J107" s="4">
+      <c r="K107" s="3">
         <v>107.86666666666667</v>
       </c>
-      <c r="K107" s="4">
+      <c r="L107" s="3">
         <v>101.93333333333334</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>710100000000</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
+        <f t="shared" si="1"/>
+        <v>27.28867164213446</v>
+      </c>
+      <c r="D108">
         <v>0.13644100000000001</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>111.61620000000001</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>106.6511</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>107.97566666666667</v>
       </c>
-      <c r="J108" s="4">
+      <c r="K108" s="3">
         <v>108.06666666666668</v>
       </c>
-      <c r="K108" s="4">
+      <c r="L108" s="3">
         <v>102.23333333333333</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>713100000000</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
+        <f t="shared" si="1"/>
+        <v>27.292887499980669</v>
+      </c>
+      <c r="D109">
         <v>0.42691899999999999</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>111.88460000000001</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>107.4179</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>108.51216666666666</v>
       </c>
-      <c r="J109" s="4">
+      <c r="K109" s="3">
         <v>110.66666666666667</v>
       </c>
-      <c r="K109" s="4">
+      <c r="L109" s="3">
         <v>105.59999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="D110">
-        <v>113.0252</v>
-      </c>
-      <c r="F110">
-        <v>108.90560000000001</v>
-      </c>
-      <c r="J110" s="4">
-        <v>111.13333333333333</v>
-      </c>
-      <c r="K110" s="4">
-        <v>104.39999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
-    <hyperlink ref="E1" r:id="rId4"/>
-    <hyperlink ref="J1" r:id="rId5"/>
-    <hyperlink ref="M1" r:id="rId6"/>
-    <hyperlink ref="G1" r:id="rId7"/>
-    <hyperlink ref="K1" r:id="rId8"/>
-    <hyperlink ref="L1" r:id="rId9"/>
-    <hyperlink ref="H1" r:id="rId10"/>
-    <hyperlink ref="I1" r:id="rId11"/>
-    <hyperlink ref="F1" r:id="rId12"/>
+    <hyperlink ref="F1" r:id="rId4"/>
+    <hyperlink ref="K1" r:id="rId5"/>
+    <hyperlink ref="N1" r:id="rId6"/>
+    <hyperlink ref="H1" r:id="rId7"/>
+    <hyperlink ref="L1" r:id="rId8"/>
+    <hyperlink ref="M1" r:id="rId9"/>
+    <hyperlink ref="I1" r:id="rId10"/>
+    <hyperlink ref="J1" r:id="rId11"/>
+    <hyperlink ref="G1" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
